--- a/biology/Médecine/Izzeldin_Abuelaish/Izzeldin_Abuelaish.xlsx
+++ b/biology/Médecine/Izzeldin_Abuelaish/Izzeldin_Abuelaish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Izzeldin Abuelaish est un médecin-obstétricien palestinien né dans la bande de Gaza en 1955. Il prône la réconciliation entre Israël et la Palestine.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Izzeldin Abuelaish est né dans la bande de Gaza dans le camp de réfugiés de Jabaliya en 1955[1]. Il est spécialiste des problèmes d'infertilité et, également, de politique de santé. Néanmoins, sa renommée tient d'abord à ses convictions pacifistes pour le rapprochement  d'Israël et de la Palestine afin de conjurer la dynamique de haine et de violence, convictions qui ont perduré malgré la mort de trois de ses filles et de sa nièce, victimes de bombardements israéliens le 16 janvier 2009 (opération Plomb durci)[2].
-Avec sa famille, ils sont réfugiés au Canada, où ils obtiennent la nationalité canadienne le 10 décembre 2015[3]. Il intente une action en justice contre l’État hébreu pour faire reconnaître la responsabilité de l’armée israélienne dans la mort de ses filles et de sa nièce et d'en obtenir réparation. Mais la Cour suprême israélienne, dans un arrêt du 24 novembre 2021, juge que la mort des enfants provenait d'un « acte de guerre » et que les autorités bénéficiaient d'une « immunité » et le déboute donc de sa demande[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Izzeldin Abuelaish est né dans la bande de Gaza dans le camp de réfugiés de Jabaliya en 1955. Il est spécialiste des problèmes d'infertilité et, également, de politique de santé. Néanmoins, sa renommée tient d'abord à ses convictions pacifistes pour le rapprochement  d'Israël et de la Palestine afin de conjurer la dynamique de haine et de violence, convictions qui ont perduré malgré la mort de trois de ses filles et de sa nièce, victimes de bombardements israéliens le 16 janvier 2009 (opération Plomb durci).
+Avec sa famille, ils sont réfugiés au Canada, où ils obtiennent la nationalité canadienne le 10 décembre 2015. Il intente une action en justice contre l’État hébreu pour faire reconnaître la responsabilité de l’armée israélienne dans la mort de ses filles et de sa nièce et d'en obtenir réparation. Mais la Cour suprême israélienne, dans un arrêt du 24 novembre 2021, juge que la mort des enfants provenait d'un « acte de guerre » et que les autorités bénéficiaient d'une « immunité » et le déboute donc de sa demande.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix de l'Institut du Moyen-Orient (en) (Washington D.C.) 2009[5],[6].
-Prix P&amp;V de la citoyenneté 2012, reçu à Bruxelles[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix de l'Institut du Moyen-Orient (en) (Washington D.C.) 2009,.
+Prix P&amp;V de la citoyenneté 2012, reçu à Bruxelles.</t>
         </is>
       </c>
     </row>
